--- a/src/test/java/com/autotest/config/Case_Service.xlsx
+++ b/src/test/java/com/autotest/config/Case_Service.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="6870" windowWidth="18820"/>
+    <workbookView windowWidth="18820" windowHeight="6870" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Test_Params" r:id="rId1" sheetId="1"/>
-    <sheet name="API_ADDRESS" r:id="rId2" sheetId="2"/>
-    <sheet name="Global_Variable" r:id="rId3" sheetId="3"/>
+    <sheet name="Test_Params" sheetId="1" r:id="rId1"/>
+    <sheet name="API_ADDRESS" sheetId="2" r:id="rId2"/>
+    <sheet name="Global_Variable" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="107">
   <si>
     <t>Case_ID(用例ID)</t>
   </si>
@@ -363,9 +363,6 @@
     <t>post_j</t>
   </si>
   <si>
-    <t>http://bxfront.ynzy-tobacco.dtstack.cn/front/api/v1/uc-user-base/</t>
-  </si>
-  <si>
     <t>get-user-info-data</t>
   </si>
   <si>
@@ -438,13 +435,10 @@
     <t>getResponseParamter</t>
   </si>
   <si>
-    <t>{"msg":"登录成功","role":"2"}</t>
+    <t>{"msg":"登录成功","isNeedSetPwd":"true","role":"2"}</t>
   </si>
   <si>
     <t>上游接口依赖参数解决测试</t>
-  </si>
-  <si>
-    <t>{"msg":"登录成功","isNeedSetPwd":"true","role":"2"}</t>
   </si>
 </sst>
 </file>
@@ -453,9 +447,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -516,6 +510,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -525,14 +570,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,7 +593,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -555,29 +609,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,58 +632,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -660,49 +654,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,133 +810,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,17 +866,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,17 +902,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,15 +928,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -953,270 +938,276 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="9" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="33" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="18" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="18" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="22" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="10">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1230,10 +1221,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1391,7 +1382,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1400,13 +1391,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1416,7 +1407,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1425,7 +1416,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1434,7 +1425,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1444,12 +1435,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1480,7 +1471,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1499,7 +1490,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1510,50 +1501,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A16" ySplit="1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection activeCell="D16" pane="bottomLeft" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.6363636363636" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.8181818181818" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="34.0909090909091" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="37.9090909090909" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="11" width="38.7181818181818" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.5363636363636" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="49.4272727272727" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="42.9545454545455" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="50.8" collapsed="true"/>
+    <col min="1" max="1" width="17.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="34.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="37.9090909090909" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.7181818181818" style="6" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.5363636363636" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="49.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="42.9545454545455" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="50.8" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:10">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1566,79 +1557,79 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="210" r="2" spans="1:10">
-      <c r="A2" s="15">
+    <row r="2" ht="210" spans="1:10">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row ht="182" r="3" spans="1:6">
-      <c r="A3" s="15">
+    <row r="3" ht="182" spans="1:6">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="172" r="4" spans="1:6">
-      <c r="A4" s="15">
+    <row r="4" ht="172" customHeight="1" spans="1:6">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row ht="409.5" r="5" spans="1:6">
+    <row r="5" ht="409.5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1648,17 +1639,17 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row ht="42" r="6" spans="1:6">
+    <row r="6" ht="42" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1668,17 +1659,17 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row ht="42" r="7" spans="1:6">
+    <row r="7" ht="42" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1688,37 +1679,37 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row ht="56" r="8" spans="1:6">
+    <row r="8" ht="56" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row ht="224" r="9" spans="1:6">
+    <row r="9" ht="224" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1728,17 +1719,17 @@
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row ht="196" r="10" spans="1:6">
+    <row r="10" ht="196" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1748,17 +1739,17 @@
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="F10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row ht="168" r="11" spans="1:10">
+    <row r="11" ht="168" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1768,18 +1759,18 @@
       <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="11"/>
-    </row>
-    <row ht="56" r="12" spans="1:10">
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" ht="56" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1789,29 +1780,29 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F12" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="6" t="s">
         <v>54</v>
       </c>
       <c r="J12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="13" spans="1:6">
+    <row r="13" ht="72" customHeight="1" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1821,7 +1812,7 @@
       <c r="C13">
         <v>4</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E13" t="s">
@@ -1831,47 +1822,47 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="392" r="14" spans="1:6">
+    <row r="14" ht="392" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row ht="378" r="15" spans="1:6">
+    <row r="15" ht="378" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="6" t="s">
         <v>64</v>
       </c>
       <c r="F15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row ht="378" r="16" spans="1:6">
+    <row r="16" ht="378" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1884,7 +1875,7 @@
       <c r="D16" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F16" t="s">
@@ -1892,30 +1883,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.2727272727273" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.9090909090909" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.2727272727273" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="96.0909090909091" collapsed="true"/>
+    <col min="1" max="1" width="20.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="23.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="22.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="96.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1985,7 +1976,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1994,9 +1985,6 @@
       </c>
       <c r="C6" t="s">
         <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2004,71 +1992,69 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="D7" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://hd215.api.yesapi.cn/" r:id="rId1" ref="D4" tooltip="http://hd215.api.yesapi.cn/"/>
-    <hyperlink display="http://hd215.api.yesapi.cn/" r:id="rId1" ref="D2" tooltip="http://hd215.api.yesapi.cn/"/>
-    <hyperlink display="http://apis.juhe.cn/" r:id="rId2" ref="D3" tooltip="http://apis.juhe.cn/"/>
-    <hyperlink display="http://hd215.api.yesapi.cn/" r:id="rId1" ref="D5" tooltip="http://hd215.api.yesapi.cn/"/>
-    <hyperlink display="http://bxfront.ynzy-tobacco.dtstack.cn/front/api/v1/uc-user-base/" r:id="rId3" ref="D6" tooltip="http://bxfront.ynzy-tobacco.dtstack.cn/front/api/v1/uc-user-base/"/>
-    <hyperlink display="http://bxfront.ynzy-tobacco.dtstack.cn/front/api/v1/uc-user-base/" r:id="rId3" ref="D7" tooltip="http://bxfront.ynzy-tobacco.dtstack.cn/front/api/v1/uc-user-base/"/>
+    <hyperlink ref="D4" r:id="rId1" display="http://hd215.api.yesapi.cn/" tooltip="http://hd215.api.yesapi.cn/"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://hd215.api.yesapi.cn/" tooltip="http://hd215.api.yesapi.cn/"/>
+    <hyperlink ref="D3" r:id="rId2" display="http://apis.juhe.cn/" tooltip="http://apis.juhe.cn/"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://hd215.api.yesapi.cn/" tooltip="http://hd215.api.yesapi.cn/"/>
+    <hyperlink ref="D6" r:id="rId3" tooltip="http://bxfront.ynzy-tobacco.dtstack.cn/front/api/v1/uc-user-base/"/>
+    <hyperlink ref="D7" r:id="rId3" tooltip="http://bxfront.ynzy-tobacco.dtstack.cn/front/api/v1/uc-user-base/"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.1818181818182" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="32.7272727272727" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="47.0909090909091" collapsed="false"/>
-    <col min="4" max="5" customWidth="true" width="32.7272727272727" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="15.2727272727273" collapsed="false"/>
+    <col min="1" max="1" width="20.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="32.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="47.0909090909091" customWidth="1"/>
+    <col min="4" max="5" width="32.7272727272727" customWidth="1"/>
+    <col min="6" max="6" width="15.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2">
         <v>2538699146</v>
@@ -2077,75 +2063,75 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" t="s">
         <v>97</v>
-      </c>
-      <c r="F4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" t="s">
         <v>101</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="6" ht="28" spans="1:6">
+      <c r="A6" s="2" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row ht="28" r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2158,7 +2144,7 @@
       <c r="D9" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>